--- a/Yalbac_Camera_Locations.xlsx
+++ b/Yalbac_Camera_Locations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BelizeMP/Elise_MP/BelizeMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D0B4C-69C0-C941-92F8-4A01AF92A5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034399C-C028-3D42-BA75-327F365960D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="1760" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="23260" windowHeight="12580" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013 season" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="745">
   <si>
     <t>Easting</t>
   </si>
@@ -2262,6 +2262,18 @@
   </si>
   <si>
     <t xml:space="preserve">Laguna Seca </t>
+  </si>
+  <si>
+    <t>Days****</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -7239,7 +7251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB919FCA-8A06-4417-9E87-98FD7DD004DD}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
@@ -11133,9 +11145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11163,7 +11175,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>741</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>0</v>
@@ -15173,19 +15185,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>316</v>
       </c>
@@ -15196,7 +15208,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>249</v>
       </c>
@@ -15207,7 +15219,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>250</v>
       </c>
@@ -15218,7 +15230,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>251</v>
       </c>
@@ -15229,7 +15241,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>252</v>
       </c>
@@ -15240,7 +15252,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>253</v>
       </c>
@@ -15251,7 +15263,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>254</v>
       </c>
@@ -15262,7 +15274,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>255</v>
       </c>
@@ -15273,7 +15285,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>256</v>
       </c>
@@ -15284,7 +15296,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>257</v>
       </c>
@@ -15295,7 +15307,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>258</v>
       </c>
@@ -15305,8 +15317,11 @@
       <c r="C11" s="22" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>259</v>
       </c>
@@ -15317,7 +15332,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>260</v>
       </c>
@@ -15328,7 +15343,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>258</v>
       </c>
@@ -15338,8 +15353,11 @@
       <c r="C14" s="22" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>261</v>
       </c>
@@ -15350,7 +15368,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>264</v>
       </c>
@@ -15360,8 +15378,11 @@
       <c r="C16" s="22" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>265</v>
       </c>
@@ -15372,7 +15393,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>264</v>
       </c>
@@ -15382,8 +15403,11 @@
       <c r="C18" s="22" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>266</v>
       </c>
@@ -15394,7 +15418,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>267</v>
       </c>
@@ -15405,7 +15429,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>268</v>
       </c>
@@ -15416,7 +15440,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>311</v>
       </c>
@@ -15427,7 +15451,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>312</v>
       </c>
@@ -15438,7 +15462,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>313</v>
       </c>
@@ -15449,7 +15473,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>314</v>
       </c>
@@ -15460,7 +15484,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>315</v>
       </c>
@@ -15471,20 +15495,20 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="22">
         <f>SUM(B2:B26)</f>
         <v>980</v>
       </c>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>262</v>
       </c>
@@ -15495,7 +15519,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>263</v>
       </c>
@@ -15506,7 +15530,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>274</v>
       </c>
@@ -15517,7 +15541,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>279</v>
       </c>
@@ -15528,7 +15552,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>280</v>
       </c>
@@ -15539,7 +15563,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>281</v>
       </c>
@@ -15550,7 +15574,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>284</v>
       </c>
@@ -15561,7 +15585,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>287</v>
       </c>
@@ -15572,7 +15596,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>291</v>
       </c>
@@ -15583,7 +15607,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>292</v>
       </c>
@@ -15594,7 +15618,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>293</v>
       </c>
@@ -15605,7 +15629,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>296</v>
       </c>
@@ -15616,7 +15640,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>299</v>
       </c>
@@ -15627,7 +15651,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>300</v>
       </c>
@@ -15637,8 +15661,11 @@
       <c r="C43" s="22" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>300</v>
       </c>
@@ -15648,8 +15675,11 @@
       <c r="C44" s="22" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>303</v>
       </c>
@@ -15660,7 +15690,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>306</v>
       </c>
@@ -15671,20 +15701,20 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="22">
         <f>SUM(B30:B46)</f>
         <v>689</v>
       </c>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C49" s="22"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>269</v>
       </c>
@@ -15694,8 +15724,11 @@
       <c r="C50" s="22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>270</v>
       </c>
@@ -15706,7 +15739,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>271</v>
       </c>
@@ -15717,7 +15750,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>269</v>
       </c>
@@ -15727,8 +15760,11 @@
       <c r="C53" s="22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>272</v>
       </c>
@@ -15739,7 +15775,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>273</v>
       </c>
@@ -15750,7 +15786,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>275</v>
       </c>
@@ -15761,7 +15797,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>276</v>
       </c>
@@ -15772,7 +15808,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>277</v>
       </c>
@@ -15783,7 +15819,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>278</v>
       </c>
@@ -15794,7 +15830,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>282</v>
       </c>
@@ -15805,7 +15841,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>283</v>
       </c>
@@ -15816,7 +15852,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>285</v>
       </c>
@@ -15827,7 +15863,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>286</v>
       </c>
@@ -15838,7 +15874,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>288</v>
       </c>
@@ -19966,7 +20002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -25020,7 +25056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D3A4C5-3399-4360-889B-B837E944BD61}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
@@ -28174,7 +28210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EB88C6-1356-437C-B03C-E4676A4A8A3B}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/Yalbac_Camera_Locations.xlsx
+++ b/Yalbac_Camera_Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034399C-C028-3D42-BA75-327F365960D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799EB7A8-7A8A-584C-B19A-3E186A7B8244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2620" windowWidth="23260" windowHeight="12580" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="750">
   <si>
     <t>Easting</t>
   </si>
@@ -2274,6 +2274,21 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>this is probs c2</t>
+  </si>
+  <si>
+    <t>this is probs c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these are probs right in current </t>
+  </si>
+  <si>
+    <t>I think this is c</t>
+  </si>
+  <si>
+    <t>c2?</t>
   </si>
 </sst>
 </file>
@@ -11146,7 +11161,7 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -15185,10 +15200,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15197,7 +15212,7 @@
     <col min="2" max="2" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>316</v>
       </c>
@@ -15208,7 +15223,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>249</v>
       </c>
@@ -15219,7 +15234,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>250</v>
       </c>
@@ -15230,7 +15245,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>251</v>
       </c>
@@ -15241,7 +15256,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>252</v>
       </c>
@@ -15252,7 +15267,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>253</v>
       </c>
@@ -15263,7 +15278,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>254</v>
       </c>
@@ -15274,7 +15289,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>255</v>
       </c>
@@ -15285,7 +15300,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>256</v>
       </c>
@@ -15296,7 +15311,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>257</v>
       </c>
@@ -15307,7 +15322,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>258</v>
       </c>
@@ -15321,7 +15336,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>259</v>
       </c>
@@ -15332,7 +15347,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>260</v>
       </c>
@@ -15343,7 +15358,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>258</v>
       </c>
@@ -15357,7 +15372,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>261</v>
       </c>
@@ -15368,7 +15383,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>264</v>
       </c>
@@ -15381,8 +15396,11 @@
       <c r="D16" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>265</v>
       </c>
@@ -15393,7 +15411,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>264</v>
       </c>
@@ -15406,8 +15424,11 @@
       <c r="D18" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>266</v>
       </c>
@@ -15418,7 +15439,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>267</v>
       </c>
@@ -15429,7 +15450,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>268</v>
       </c>
@@ -15440,7 +15461,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>311</v>
       </c>
@@ -15451,7 +15472,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>312</v>
       </c>
@@ -15462,7 +15483,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>313</v>
       </c>
@@ -15473,7 +15494,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>314</v>
       </c>
@@ -15484,7 +15505,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>315</v>
       </c>
@@ -15495,20 +15516,20 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="22">
         <f>SUM(B2:B26)</f>
         <v>980</v>
       </c>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>262</v>
       </c>
@@ -15519,7 +15540,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>263</v>
       </c>
@@ -15530,7 +15551,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>274</v>
       </c>
@@ -15711,10 +15732,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="22"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>269</v>
       </c>
@@ -15727,8 +15748,14 @@
       <c r="D50" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>747</v>
+      </c>
+      <c r="I50" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>270</v>
       </c>
@@ -15739,7 +15766,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>271</v>
       </c>
@@ -15750,7 +15777,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>269</v>
       </c>
@@ -15763,8 +15790,11 @@
       <c r="D53" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>272</v>
       </c>
@@ -15775,7 +15805,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>273</v>
       </c>
@@ -15786,7 +15816,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>275</v>
       </c>
@@ -15797,7 +15827,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>276</v>
       </c>
@@ -15808,7 +15838,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>277</v>
       </c>
@@ -15819,7 +15849,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>278</v>
       </c>
@@ -15830,7 +15860,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>282</v>
       </c>
@@ -15841,7 +15871,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>283</v>
       </c>
@@ -15852,7 +15882,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>285</v>
       </c>
@@ -15863,7 +15893,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>286</v>
       </c>
@@ -15874,7 +15904,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>288</v>
       </c>

--- a/Yalbac_Camera_Locations.xlsx
+++ b/Yalbac_Camera_Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799EB7A8-7A8A-584C-B19A-3E186A7B8244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82392066-B010-0644-BBFD-465BA0CA43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="23260" windowHeight="12580" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2860" windowWidth="23260" windowHeight="12580" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013 season" sheetId="1" r:id="rId1"/>
@@ -9773,7 +9773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
@@ -11161,8 +11161,8 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15202,7 +15202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -16085,8 +16085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Yalbac_Camera_Locations.xlsx
+++ b/Yalbac_Camera_Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82392066-B010-0644-BBFD-465BA0CA43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F632EB8-254F-A34C-8640-B71F6238B859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2860" windowWidth="23260" windowHeight="12580" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11161,8 +11161,8 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11173,6 +11173,8 @@
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="19.83203125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15202,8 +15204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Yalbac_Camera_Locations.xlsx
+++ b/Yalbac_Camera_Locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F632EB8-254F-A34C-8640-B71F6238B859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072308A-7E3E-944B-8530-887B6E965EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2860" windowWidth="23260" windowHeight="12580" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11161,8 +11161,8 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11247,10 +11247,6 @@
       <c r="D2" s="5">
         <v>41752</v>
       </c>
-      <c r="E2">
-        <f>DATEDIF(C2,D2,"D")</f>
-        <v>36</v>
-      </c>
       <c r="F2" s="4">
         <v>299504.905195</v>
       </c>
@@ -11298,10 +11294,7 @@
       <c r="D3" s="5">
         <v>41752</v>
       </c>
-      <c r="E3" s="43">
-        <f t="shared" ref="E3:E66" si="0">DATEDIF(C3,D3,"D")</f>
-        <v>36</v>
-      </c>
+      <c r="E3" s="43"/>
       <c r="F3" s="4">
         <v>300194.58872699999</v>
       </c>
@@ -11349,10 +11342,7 @@
       <c r="D4" s="5">
         <v>41752</v>
       </c>
-      <c r="E4" s="43">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+      <c r="E4" s="43"/>
       <c r="F4" s="4">
         <v>291031.29713800002</v>
       </c>
@@ -11401,10 +11391,7 @@
       <c r="D5" s="5">
         <v>41752</v>
       </c>
-      <c r="E5" s="43">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+      <c r="E5" s="43"/>
       <c r="F5" s="4">
         <v>283422.79744300002</v>
       </c>
@@ -11453,10 +11440,7 @@
       <c r="D6" s="5">
         <v>41752</v>
       </c>
-      <c r="E6" s="43">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+      <c r="E6" s="43"/>
       <c r="F6" s="4">
         <v>283348.02513099997</v>
       </c>
@@ -11505,10 +11489,7 @@
       <c r="D7" s="5">
         <v>41752</v>
       </c>
-      <c r="E7" s="43">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+      <c r="E7" s="43"/>
       <c r="F7" s="4">
         <v>282835.17592100002</v>
       </c>
@@ -11557,10 +11538,7 @@
       <c r="D8" s="5">
         <v>41752</v>
       </c>
-      <c r="E8" s="43">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+      <c r="E8" s="43"/>
       <c r="F8" s="4">
         <v>283361.81445499999</v>
       </c>
@@ -11609,10 +11587,7 @@
       <c r="D9" s="5">
         <v>41752</v>
       </c>
-      <c r="E9" s="43">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+      <c r="E9" s="43"/>
       <c r="F9" s="4">
         <v>282533.28121699998</v>
       </c>
@@ -11714,10 +11689,6 @@
       <c r="D11" s="5">
         <v>41787</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
       <c r="F11" s="4">
         <v>291227.26662695</v>
       </c>
@@ -11767,10 +11738,7 @@
       <c r="D12" s="5">
         <v>41787</v>
       </c>
-      <c r="E12" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E12" s="43"/>
       <c r="F12" s="4">
         <v>305818.49404684</v>
       </c>
@@ -11819,10 +11787,7 @@
       <c r="D13" s="5">
         <v>41787</v>
       </c>
-      <c r="E13" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E13" s="43"/>
       <c r="F13" s="4">
         <v>283453.94751376001</v>
       </c>
@@ -11871,10 +11836,7 @@
       <c r="D14" s="5">
         <v>41787</v>
       </c>
-      <c r="E14" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E14" s="43"/>
       <c r="F14" s="4">
         <v>283558.40077482001</v>
       </c>
@@ -11923,10 +11885,7 @@
       <c r="D15" s="5">
         <v>41787</v>
       </c>
-      <c r="E15" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E15" s="43"/>
       <c r="F15" s="4">
         <v>282356.32871541003</v>
       </c>
@@ -11975,10 +11934,7 @@
       <c r="D16" s="5">
         <v>41787</v>
       </c>
-      <c r="E16" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E16" s="43"/>
       <c r="F16" s="4">
         <v>284005.43206953001</v>
       </c>
@@ -12027,10 +11983,7 @@
       <c r="D17" s="5">
         <v>41787</v>
       </c>
-      <c r="E17" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E17" s="43"/>
       <c r="F17" s="4">
         <v>283089.78155140998</v>
       </c>
@@ -12079,10 +12032,7 @@
       <c r="D18" s="5">
         <v>41787</v>
       </c>
-      <c r="E18" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E18" s="43"/>
       <c r="F18" s="4">
         <v>282303.57875599997</v>
       </c>
@@ -12131,10 +12081,7 @@
       <c r="D19" s="5">
         <v>41787</v>
       </c>
-      <c r="E19" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E19" s="43"/>
       <c r="F19" s="4">
         <v>283544.13810902002</v>
       </c>
@@ -12183,10 +12130,7 @@
       <c r="D20" s="5">
         <v>41787</v>
       </c>
-      <c r="E20" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="E20" s="43"/>
       <c r="F20" s="4">
         <v>283420.20895781001</v>
       </c>
@@ -12235,10 +12179,7 @@
       <c r="D21" s="5">
         <v>41838</v>
       </c>
-      <c r="E21" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E21" s="43"/>
       <c r="F21" s="4">
         <v>306148.48781801999</v>
       </c>
@@ -12287,10 +12228,7 @@
       <c r="D22" s="5">
         <v>41838</v>
       </c>
-      <c r="E22" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E22" s="43"/>
       <c r="F22" s="4">
         <v>303763.51611725002</v>
       </c>
@@ -12339,10 +12277,7 @@
       <c r="D23" s="5">
         <v>41838</v>
       </c>
-      <c r="E23" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E23" s="43"/>
       <c r="F23" s="4">
         <v>290976.16779005999</v>
       </c>
@@ -12392,10 +12327,7 @@
       <c r="D24" s="5">
         <v>41838</v>
       </c>
-      <c r="E24" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E24" s="43"/>
       <c r="F24" s="4">
         <v>304607.04380715999</v>
       </c>
@@ -12444,10 +12376,7 @@
       <c r="D25" s="5">
         <v>41838</v>
       </c>
-      <c r="E25" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E25" s="43"/>
       <c r="F25" s="4">
         <v>283405.80972992</v>
       </c>
@@ -12496,10 +12425,7 @@
       <c r="D26" s="5">
         <v>41838</v>
       </c>
-      <c r="E26" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E26" s="43"/>
       <c r="F26" s="4">
         <v>283359.16892055998</v>
       </c>
@@ -12547,10 +12473,7 @@
       <c r="D27" s="5">
         <v>41838</v>
       </c>
-      <c r="E27" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E27" s="43"/>
       <c r="F27" s="4">
         <v>287745.44159881002</v>
       </c>
@@ -12598,10 +12521,7 @@
       <c r="D28" s="5">
         <v>41838</v>
       </c>
-      <c r="E28" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E28" s="43"/>
       <c r="F28" s="4">
         <v>283343.92635382002</v>
       </c>
@@ -12650,10 +12570,7 @@
       <c r="D29" s="5">
         <v>41838</v>
       </c>
-      <c r="E29" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E29" s="43"/>
       <c r="F29" s="4">
         <v>287509.22436975001</v>
       </c>
@@ -12703,10 +12620,7 @@
       <c r="D30" s="5">
         <v>41838</v>
       </c>
-      <c r="E30" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E30" s="43"/>
       <c r="F30" s="4">
         <v>286611.75533861999</v>
       </c>
@@ -12756,10 +12670,7 @@
       <c r="D31" s="5">
         <v>41838</v>
       </c>
-      <c r="E31" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E31" s="43"/>
       <c r="F31" s="4">
         <v>283393.20614977001</v>
       </c>
@@ -12808,10 +12719,7 @@
       <c r="D32" s="5">
         <v>41838</v>
       </c>
-      <c r="E32" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E32" s="43"/>
       <c r="F32" s="4">
         <v>282700.78485583997</v>
       </c>
@@ -12859,10 +12767,7 @@
       <c r="D33" s="5">
         <v>41838</v>
       </c>
-      <c r="E33" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+      <c r="E33" s="43"/>
       <c r="F33" s="4">
         <v>302853.88205802999</v>
       </c>
@@ -12910,10 +12815,7 @@
       <c r="D34" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E34" s="43"/>
       <c r="F34" s="18">
         <v>305786.260633</v>
       </c>
@@ -12961,10 +12863,7 @@
       <c r="D35" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E35" s="43"/>
       <c r="F35" s="18">
         <v>303877.52769000002</v>
       </c>
@@ -13012,10 +12911,7 @@
       <c r="D36" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E36" s="43"/>
       <c r="F36" s="18">
         <v>290967.02983199997</v>
       </c>
@@ -13063,10 +12959,7 @@
       <c r="D37" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E37" s="43"/>
       <c r="F37" s="18">
         <v>304744.39105199999</v>
       </c>
@@ -13114,10 +13007,7 @@
       <c r="D38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E38" s="43"/>
       <c r="F38" s="18">
         <v>283565.37313899997</v>
       </c>
@@ -13165,10 +13055,7 @@
       <c r="D39" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E39" s="43"/>
       <c r="F39" s="18">
         <v>292119.81952600001</v>
       </c>
@@ -13216,10 +13103,7 @@
       <c r="D40" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E40" s="43"/>
       <c r="F40" s="18">
         <v>283443.887155</v>
       </c>
@@ -13267,10 +13151,7 @@
       <c r="D41" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E41" s="43"/>
       <c r="F41" s="18">
         <v>291804.87758799997</v>
       </c>
@@ -13318,10 +13199,7 @@
       <c r="D42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E42" s="43"/>
       <c r="F42" s="18">
         <v>283207.63169299997</v>
       </c>
@@ -13369,10 +13247,6 @@
       <c r="D43" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="16">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
       <c r="F43" s="18">
         <v>291398.27318999998</v>
       </c>
@@ -13470,10 +13344,7 @@
       <c r="D45" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="43">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
+      <c r="E45" s="43"/>
       <c r="F45" s="18">
         <v>302849.58338500001</v>
       </c>
@@ -13521,10 +13392,7 @@
       <c r="D46" s="5">
         <v>41946</v>
       </c>
-      <c r="E46" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E46" s="43"/>
       <c r="F46" s="18">
         <v>305786.260633</v>
       </c>
@@ -13572,10 +13440,7 @@
       <c r="D47" s="5">
         <v>41946</v>
       </c>
-      <c r="E47" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E47" s="43"/>
       <c r="F47" s="18">
         <v>303877.52769000002</v>
       </c>
@@ -13623,10 +13488,7 @@
       <c r="D48" s="5">
         <v>41946</v>
       </c>
-      <c r="E48" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E48" s="43"/>
       <c r="F48" s="18">
         <v>290967.02983199997</v>
       </c>
@@ -13674,10 +13536,7 @@
       <c r="D49" s="5">
         <v>41946</v>
       </c>
-      <c r="E49" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E49" s="43"/>
       <c r="F49" s="18">
         <v>304744.39105199999</v>
       </c>
@@ -13725,10 +13584,7 @@
       <c r="D50" s="5">
         <v>41946</v>
       </c>
-      <c r="E50" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E50" s="43"/>
       <c r="F50" s="18">
         <v>283565.37313899997</v>
       </c>
@@ -13776,10 +13632,7 @@
       <c r="D51" s="5">
         <v>41946</v>
       </c>
-      <c r="E51" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E51" s="43"/>
       <c r="F51" s="18">
         <v>292119.81952600001</v>
       </c>
@@ -13827,10 +13680,7 @@
       <c r="D52" s="5">
         <v>41946</v>
       </c>
-      <c r="E52" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E52" s="43"/>
       <c r="F52" s="18">
         <v>283443.887155</v>
       </c>
@@ -13878,10 +13728,7 @@
       <c r="D53" s="5">
         <v>41946</v>
       </c>
-      <c r="E53" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E53" s="43"/>
       <c r="F53" s="18">
         <v>291804.87758799997</v>
       </c>
@@ -13929,10 +13776,7 @@
       <c r="D54" s="5">
         <v>41946</v>
       </c>
-      <c r="E54" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E54" s="43"/>
       <c r="F54" s="18">
         <v>283207.63169299997</v>
       </c>
@@ -13980,10 +13824,7 @@
       <c r="D55" s="5">
         <v>41946</v>
       </c>
-      <c r="E55" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E55" s="43"/>
       <c r="F55" s="18">
         <v>291398.27318999998</v>
       </c>
@@ -14031,10 +13872,7 @@
       <c r="D56" s="5">
         <v>41946</v>
       </c>
-      <c r="E56" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E56" s="43"/>
       <c r="F56" s="18">
         <v>283343.072109</v>
       </c>
@@ -14082,10 +13920,7 @@
       <c r="D57" s="5">
         <v>41946</v>
       </c>
-      <c r="E57" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+      <c r="E57" s="43"/>
       <c r="F57" s="18">
         <v>302849.58338500001</v>
       </c>
@@ -14153,10 +13988,6 @@
       <c r="D59" t="s">
         <v>199</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
       <c r="F59" s="17">
         <v>303759.676553</v>
       </c>
@@ -14204,10 +14035,7 @@
       <c r="D60" s="29">
         <v>41995</v>
       </c>
-      <c r="E60" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="E60" s="43"/>
       <c r="F60" s="17">
         <v>287303.29920499999</v>
       </c>
@@ -14255,10 +14083,7 @@
       <c r="D61" s="29">
         <v>41995</v>
       </c>
-      <c r="E61" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="E61" s="43"/>
       <c r="F61" s="17">
         <v>304653.30888600001</v>
       </c>
@@ -14306,10 +14131,7 @@
       <c r="D62" s="29">
         <v>41995</v>
       </c>
-      <c r="E62" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="E62" s="43"/>
       <c r="F62" s="17">
         <v>283532.99642799998</v>
       </c>
@@ -14357,10 +14179,7 @@
       <c r="D63" s="29">
         <v>41995</v>
       </c>
-      <c r="E63" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="E63" s="43"/>
       <c r="F63" s="17">
         <v>286926.279767</v>
       </c>
@@ -14408,10 +14227,7 @@
       <c r="D64" s="29">
         <v>41995</v>
       </c>
-      <c r="E64" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="E64" s="43"/>
       <c r="F64" s="17">
         <v>284554.38671599998</v>
       </c>
@@ -14459,10 +14275,7 @@
       <c r="D65" s="29">
         <v>41995</v>
       </c>
-      <c r="E65" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="E65" s="43"/>
       <c r="F65" s="17">
         <v>287878.57947</v>
       </c>
@@ -14510,10 +14323,7 @@
       <c r="D66" s="29">
         <v>41995</v>
       </c>
-      <c r="E66" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="E66" s="43"/>
       <c r="F66" s="17">
         <v>283847.44533900003</v>
       </c>
@@ -14595,10 +14405,6 @@
       <c r="D69" s="29">
         <v>41995</v>
       </c>
-      <c r="E69">
-        <f t="shared" ref="E69:E80" si="1">DATEDIF(C69,D69,"D")</f>
-        <v>49</v>
-      </c>
       <c r="F69" s="17">
         <v>283383.91773699998</v>
       </c>
@@ -14646,10 +14452,7 @@
       <c r="D70" s="29">
         <v>41995</v>
       </c>
-      <c r="E70" s="43">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
+      <c r="E70" s="43"/>
       <c r="F70" s="17">
         <v>305716.08936300001</v>
       </c>
@@ -14697,10 +14500,7 @@
       <c r="D71" s="29">
         <v>42053</v>
       </c>
-      <c r="E71" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E71" s="43"/>
       <c r="F71" s="18">
         <v>303762.064182</v>
       </c>
@@ -14748,10 +14548,7 @@
       <c r="D72" s="29">
         <v>42053</v>
       </c>
-      <c r="E72" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E72" s="43"/>
       <c r="F72" s="18">
         <v>291689.06010800001</v>
       </c>
@@ -14799,10 +14596,7 @@
       <c r="D73" s="29">
         <v>42053</v>
       </c>
-      <c r="E73" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E73" s="43"/>
       <c r="F73" s="18">
         <v>304653.30888600001</v>
       </c>
@@ -14850,10 +14644,7 @@
       <c r="D74" s="29">
         <v>42053</v>
       </c>
-      <c r="E74" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E74" s="43"/>
       <c r="F74" s="18">
         <v>285409.15846399998</v>
       </c>
@@ -14901,10 +14692,7 @@
       <c r="D75" s="29">
         <v>42053</v>
       </c>
-      <c r="E75" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E75" s="43"/>
       <c r="F75" s="18">
         <v>291882.85421999998</v>
       </c>
@@ -14952,10 +14740,7 @@
       <c r="D76" s="29">
         <v>42053</v>
       </c>
-      <c r="E76" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E76" s="43"/>
       <c r="F76" s="18">
         <v>288174.65701000002</v>
       </c>
@@ -15003,10 +14788,7 @@
       <c r="D77" s="29">
         <v>42053</v>
       </c>
-      <c r="E77" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E77" s="43"/>
       <c r="F77" s="18">
         <v>287876.78542299999</v>
       </c>
@@ -15054,10 +14836,7 @@
       <c r="D78" s="29">
         <v>42053</v>
       </c>
-      <c r="E78" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E78" s="43"/>
       <c r="F78" s="18">
         <v>290370.82823599997</v>
       </c>
@@ -15105,10 +14884,7 @@
       <c r="D79" s="29">
         <v>42053</v>
       </c>
-      <c r="E79" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E79" s="43"/>
       <c r="F79" s="18">
         <v>291693.76281599997</v>
       </c>
@@ -15156,10 +14932,7 @@
       <c r="D80" s="29">
         <v>42053</v>
       </c>
-      <c r="E80" s="43">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="E80" s="43"/>
       <c r="F80" s="18">
         <v>305715.87476899999</v>
       </c>
@@ -15204,7 +14977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
